--- a/Задание 4.2.xlsx
+++ b/Задание 4.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7A8D24-13C7-4EB1-AD74-CC9A6C480BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0E8576-BC33-415F-A018-9CFFDE575383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5565" yWindow="0" windowWidth="22170" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4230" yWindow="0" windowWidth="23505" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/m/yy"/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -319,23 +319,23 @@
     </xf>
     <xf numFmtId="2" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -392,7 +392,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>Успеваемость студентов по предметам</a:t>
+              <a:t>Успеваемость студентов по месяцам</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -464,6 +464,62 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Лист1!$A$39:$A$43</c:f>
@@ -495,7 +551,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.3333333333333335</c:v>
+                  <c:v>3.33</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
@@ -504,10 +560,10 @@
                   <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7333333333333334</c:v>
+                  <c:v>2.73</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7692307692307692</c:v>
+                  <c:v>2.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -550,6 +606,62 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Лист1!$A$39:$A$43</c:f>
@@ -584,13 +696,13 @@
                   <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3333333333333335</c:v>
+                  <c:v>3.33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7857142857142856</c:v>
+                  <c:v>2.79</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4210526315789473</c:v>
+                  <c:v>2.42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -633,6 +745,62 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Лист1!$A$39:$A$43</c:f>
@@ -664,16 +832,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.9444444444444446</c:v>
+                  <c:v>2.94</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8181818181818183</c:v>
+                  <c:v>2.82</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7272727272727275</c:v>
+                  <c:v>2.73</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8461538461538463</c:v>
+                  <c:v>2.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -716,6 +884,62 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Лист1!$A$39:$A$43</c:f>
@@ -747,7 +971,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.7272727272727275</c:v>
+                  <c:v>2.73</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.25</c:v>
@@ -796,6 +1020,62 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Лист1!$A$39:$A$43</c:f>
@@ -827,16 +1107,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.7142857142857144</c:v>
+                  <c:v>2.71</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5625</c:v>
+                  <c:v>3.56</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.125</c:v>
+                  <c:v>3.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -879,6 +1159,62 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Лист1!$A$39:$A$43</c:f>
@@ -924,13 +1260,14 @@
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="300"/>
+        <c:gapWidth val="259"/>
+        <c:overlap val="-52"/>
         <c:axId val="549328360"/>
         <c:axId val="549330000"/>
       </c:barChart>
@@ -1155,7 +1492,1187 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Успеваемость студентов по предметам</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="3"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="200"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="10"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>05.03.21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$38:$G$38</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Математика</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Русский язык</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Литература</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Физика</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Химия</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>История</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$39:$G$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B400-4ED7-8B4E-D59A8608DAFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>05.04.21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$38:$G$38</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Математика</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Русский язык</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Литература</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Физика</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Химия</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>История</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$40:$G$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B400-4ED7-8B4E-D59A8608DAFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>05.05.21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$38:$G$38</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Математика</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Русский язык</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Литература</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Физика</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Химия</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>История</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$41:$G$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B400-4ED7-8B4E-D59A8608DAFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>05.06.21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$38:$G$38</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Математика</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Русский язык</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Литература</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Физика</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Химия</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>История</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$42:$G$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B400-4ED7-8B4E-D59A8608DAFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>05.07.21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$38:$G$38</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Математика</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Русский язык</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Литература</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Физика</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Химия</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>История</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$43:$G$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B400-4ED7-8B4E-D59A8608DAFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="241"/>
+        <c:gapDepth val="79"/>
+        <c:shape val="box"/>
+        <c:axId val="549328360"/>
+        <c:axId val="549330000"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="549328360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="549330000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="549330000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="549328360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1744,20 +3261,516 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1777,6 +3790,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{317BEFF0-2F48-497B-AEEF-BDAFAB8C6CDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1988,8 +4039,8 @@
   </sheetPr>
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="O55" sqref="O55"/>
+    <sheetView tabSelected="1" topLeftCell="B41" workbookViewId="0">
+      <selection activeCell="L75" sqref="L75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2877,162 +4928,162 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="22"/>
-      <c r="B38" s="25" t="str">
+      <c r="A38" s="27"/>
+      <c r="B38" s="21" t="str">
         <f>B3</f>
         <v>Математика</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E38" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="25" t="s">
+      <c r="F38" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="25" t="s">
+      <c r="G38" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="27">
+      <c r="A39" s="23">
         <f>A3</f>
         <v>44260</v>
       </c>
-      <c r="B39" s="26">
-        <f>I3</f>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="C39" s="26">
-        <f>I8</f>
+      <c r="B39" s="22">
+        <f>ROUND(I3,2)</f>
+        <v>3.33</v>
+      </c>
+      <c r="C39" s="22">
+        <f>ROUND(I8,2)</f>
         <v>3.75</v>
       </c>
-      <c r="D39" s="26">
-        <f>I14</f>
-        <v>2.9444444444444446</v>
-      </c>
-      <c r="E39" s="26">
-        <f>I18</f>
-        <v>2.7272727272727275</v>
-      </c>
-      <c r="F39" s="26">
-        <f>I21</f>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="G39" s="26"/>
+      <c r="D39" s="22">
+        <f>ROUND(I14,2)</f>
+        <v>2.94</v>
+      </c>
+      <c r="E39" s="22">
+        <f>ROUND(I18,2)</f>
+        <v>2.73</v>
+      </c>
+      <c r="F39" s="22">
+        <f>ROUND(I21,2)</f>
+        <v>2.71</v>
+      </c>
+      <c r="G39" s="22"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="27">
-        <f t="shared" ref="A40:A45" si="5">A4</f>
+      <c r="A40" s="23">
+        <f t="shared" ref="A40:A43" si="5">A4</f>
         <v>44291</v>
       </c>
-      <c r="B40" s="26">
-        <f t="shared" ref="B40:B43" si="6">I4</f>
+      <c r="B40" s="22">
+        <f t="shared" ref="B40:B43" si="6">ROUND(I4,2)</f>
         <v>4</v>
       </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26">
-        <f t="shared" ref="D40:D42" si="7">I15</f>
-        <v>2.8181818181818183</v>
-      </c>
-      <c r="E40" s="26">
-        <f t="shared" ref="E40:E41" si="8">I19</f>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22">
+        <f t="shared" ref="D40:D42" si="7">ROUND(I15,2)</f>
+        <v>2.82</v>
+      </c>
+      <c r="E40" s="22">
+        <f t="shared" ref="E40:E41" si="8">ROUND(I19,2)</f>
         <v>3.25</v>
       </c>
-      <c r="F40" s="26">
-        <f t="shared" ref="F40:F42" si="9">I22</f>
+      <c r="F40" s="22">
+        <f t="shared" ref="F40:F42" si="9">ROUND(I22,2)</f>
         <v>3.1</v>
       </c>
-      <c r="G40" s="26"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="27">
+      <c r="A41" s="23">
         <f t="shared" si="5"/>
         <v>44321</v>
       </c>
-      <c r="B41" s="26">
+      <c r="B41" s="22">
         <f t="shared" si="6"/>
         <v>2.6</v>
       </c>
-      <c r="C41" s="26">
-        <f>I9</f>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="D41" s="26">
+      <c r="C41" s="22">
+        <f>ROUND(I9,2)</f>
+        <v>3.33</v>
+      </c>
+      <c r="D41" s="22">
         <f t="shared" si="7"/>
-        <v>2.7272727272727275</v>
-      </c>
-      <c r="E41" s="26">
+        <v>2.73</v>
+      </c>
+      <c r="E41" s="22">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="F41" s="26">
+      <c r="F41" s="22">
         <f t="shared" si="9"/>
-        <v>3.5625</v>
-      </c>
-      <c r="G41" s="26"/>
+        <v>3.56</v>
+      </c>
+      <c r="G41" s="22"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="27">
+      <c r="A42" s="23">
         <f t="shared" si="5"/>
         <v>44352</v>
       </c>
-      <c r="B42" s="26">
+      <c r="B42" s="22">
         <f t="shared" si="6"/>
-        <v>2.7333333333333334</v>
-      </c>
-      <c r="C42" s="26">
-        <f t="shared" ref="C42:C43" si="10">I10</f>
-        <v>2.7857142857142856</v>
-      </c>
-      <c r="D42" s="26">
+        <v>2.73</v>
+      </c>
+      <c r="C42" s="22">
+        <f t="shared" ref="C42:C43" si="10">ROUND(I10,2)</f>
+        <v>2.79</v>
+      </c>
+      <c r="D42" s="22">
         <f t="shared" si="7"/>
-        <v>2.8461538461538463</v>
-      </c>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26">
+        <v>2.85</v>
+      </c>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22">
         <f t="shared" si="9"/>
-        <v>3.125</v>
-      </c>
-      <c r="G42" s="26">
+        <v>3.13</v>
+      </c>
+      <c r="G42" s="22">
         <f>I25</f>
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="27">
+      <c r="A43" s="23">
         <f t="shared" si="5"/>
         <v>44382</v>
       </c>
-      <c r="B43" s="26">
+      <c r="B43" s="22">
         <f t="shared" si="6"/>
-        <v>2.7692307692307692</v>
-      </c>
-      <c r="C43" s="26">
+        <v>2.77</v>
+      </c>
+      <c r="C43" s="22">
         <f t="shared" si="10"/>
-        <v>2.4210526315789473</v>
-      </c>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
+        <v>2.42</v>
+      </c>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
     </row>
     <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
